--- a/RVPH.xlsx
+++ b/RVPH.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B3CBFE-331F-46C3-91DB-FA72ABDCDDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE337E-5395-4022-B457-A4D61CA6C4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="2000" windowWidth="19120" windowHeight="19600" xr2:uid="{15D8D325-422D-4F56-AC6B-037051BB27AD}"/>
+    <workbookView xWindow="14560" yWindow="2380" windowWidth="21220" windowHeight="15520" xr2:uid="{15D8D325-422D-4F56-AC6B-037051BB27AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="brilaroxazine" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Price</t>
   </si>
@@ -78,13 +80,70 @@
   </si>
   <si>
     <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase III "RECOVER-1"</t>
+  </si>
+  <si>
+    <t>Phase III "RECOVER-2"</t>
+  </si>
+  <si>
+    <t>ITCI</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Phase III</t>
+  </si>
+  <si>
+    <t>Filing</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +152,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -202,10 +291,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -222,8 +312,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,7 +654,7 @@
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -574,7 +669,9 @@
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -584,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>1.24</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -615,7 +712,7 @@
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>41.467086759999994</v>
+        <v>89.956825309999985</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -659,7 +756,7 @@
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>35.991269759999994</v>
+        <v>84.481008309999979</v>
       </c>
       <c r="L7" s="4"/>
     </row>
@@ -683,6 +780,348 @@
       </c>
       <c r="L10" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4EBCE2-EA27-4994-9114-6D1CBB5EC5C9}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E5DB6BB7-9131-4682-9B87-C092DB90D7F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5004F1E-62D0-4285-9EB0-437BBBD9FF04}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="4"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="4">
+        <f>+C2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:P2" si="0">+D2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16">
+        <v>22.53</v>
+      </c>
+      <c r="G3" s="16">
+        <v>81.707999999999998</v>
+      </c>
+      <c r="H3" s="16">
+        <v>249.13200000000001</v>
+      </c>
+      <c r="I3" s="16">
+        <v>462.17500000000001</v>
+      </c>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <f>+F3</f>
+        <v>22.53</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+G3</f>
+        <v>81.707999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <f>+H3</f>
+        <v>249.13200000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <f>+I3</f>
+        <v>462.17500000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <f>+I5*1.5</f>
+        <v>693.26250000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <f>+F5*0.1</f>
+        <v>2.2530000000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+G5*0.1</f>
+        <v>8.1707999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <f>+H5*0.1</f>
+        <v>24.913200000000003</v>
+      </c>
+      <c r="I6" s="3">
+        <f>+I5*0.1</f>
+        <v>46.217500000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <f>+J5*0.1</f>
+        <v>69.326250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:H7" si="1">+F5-F6</f>
+        <v>20.277000000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>73.537199999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>224.21879999999999</v>
+      </c>
+      <c r="I7" s="3">
+        <f>+I5-I6</f>
+        <v>415.95749999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <f>+J5-J6</f>
+        <v>623.93625000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <f>358.782/4</f>
+        <v>89.695499999999996</v>
+      </c>
+      <c r="G8" s="3">
+        <f>358.782/4</f>
+        <v>89.695499999999996</v>
+      </c>
+      <c r="H8" s="3">
+        <f>358.782/4</f>
+        <v>89.695499999999996</v>
+      </c>
+      <c r="I8" s="3">
+        <f>409.864/4</f>
+        <v>102.46599999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-50</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-50</v>
+      </c>
+      <c r="F9" s="3">
+        <f>+F7-F8</f>
+        <v>-69.418499999999995</v>
+      </c>
+      <c r="G9" s="3">
+        <f>+G7-G8</f>
+        <v>-16.158299999999997</v>
+      </c>
+      <c r="H9" s="3">
+        <f>+H7-H8</f>
+        <v>134.52330000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <f>+I7-I8</f>
+        <v>313.49149999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <f>+J7-J8</f>
+        <v>523.93625000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3">
+        <f>NPV(L12,D9:J9)</f>
+        <v>263.21212929891516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1">
+        <f>33+27+10</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2">
+        <f>+L13/L14</f>
+        <v>3.7601732756987878</v>
       </c>
     </row>
   </sheetData>
